--- a/www.eia.gov/electricity/monthly/xls/table_1_02_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_02_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
-  <si>
-    <t>Table 1.2.B Net Generation by Energy Source:  Independent Power Producers, 2006-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+  <si>
+    <t>Table 1.2.B Net Generation by Energy Source:  Independent Power Producers, 2006-November 2016</t>
   </si>
   <si>
     <t>(Thousand Megawatthours)</t>
@@ -138,7 +138,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Coal includes anthracite, bituminous, subbituminous, lignite, and waste coal; synthetic coal and refined coal; and beginning in 2011, coal-derived synthesis gas. Prior to 2011 coal-derived synthesis gas was included in Other Gases.
@@ -1092,7 +1092,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3072,267 +3072,308 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="10">
+        <v>21420</v>
+      </c>
+      <c r="C53" s="10">
+        <v>338</v>
+      </c>
+      <c r="D53" s="10">
+        <v>116</v>
+      </c>
+      <c r="E53" s="10">
+        <v>42440</v>
+      </c>
+      <c r="F53" s="10">
+        <v>338</v>
+      </c>
+      <c r="G53" s="10">
+        <v>32097</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1003</v>
+      </c>
+      <c r="I53" s="10">
+        <v>2458</v>
+      </c>
+      <c r="J53" s="10">
+        <v>19667</v>
+      </c>
+      <c r="K53" s="10">
+        <v>-85</v>
+      </c>
+      <c r="L53" s="10">
+        <v>576</v>
+      </c>
+      <c r="M53" s="10">
+        <v>120368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="10">
-        <v>334374</v>
-      </c>
-      <c r="C54" s="10">
-        <v>6293</v>
-      </c>
-      <c r="D54" s="10">
-        <v>1183</v>
-      </c>
-      <c r="E54" s="10">
-        <v>449872</v>
-      </c>
-      <c r="F54" s="10">
-        <v>2605</v>
-      </c>
-      <c r="G54" s="10">
-        <v>311771</v>
-      </c>
-      <c r="H54" s="10">
-        <v>16919</v>
-      </c>
-      <c r="I54" s="10">
-        <v>13887</v>
-      </c>
-      <c r="J54" s="10">
-        <v>161181</v>
-      </c>
-      <c r="K54" s="10">
-        <v>-869</v>
-      </c>
-      <c r="L54" s="10">
-        <v>5531</v>
-      </c>
-      <c r="M54" s="10">
-        <v>1302747</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="10">
-        <v>300374</v>
+        <v>365427</v>
       </c>
       <c r="C55" s="10">
-        <v>5751</v>
+        <v>6561</v>
       </c>
       <c r="D55" s="10">
-        <v>1394</v>
+        <v>1271</v>
       </c>
       <c r="E55" s="10">
-        <v>524621</v>
+        <v>489106</v>
       </c>
       <c r="F55" s="10">
-        <v>2981</v>
+        <v>2898</v>
       </c>
       <c r="G55" s="10">
-        <v>317349</v>
+        <v>342360</v>
       </c>
       <c r="H55" s="10">
-        <v>14974</v>
+        <v>18074</v>
       </c>
       <c r="I55" s="10">
-        <v>19915</v>
+        <v>15147</v>
       </c>
       <c r="J55" s="10">
-        <v>162058</v>
+        <v>180622</v>
       </c>
       <c r="K55" s="10">
-        <v>-849</v>
+        <v>-959</v>
       </c>
       <c r="L55" s="10">
-        <v>5640</v>
+        <v>6109</v>
       </c>
       <c r="M55" s="10">
-        <v>1354209</v>
+        <v>1426616</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="10">
+        <v>322545</v>
+      </c>
+      <c r="C56" s="10">
+        <v>5987</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1533</v>
+      </c>
+      <c r="E56" s="10">
+        <v>571163</v>
+      </c>
+      <c r="F56" s="10">
+        <v>3214</v>
+      </c>
+      <c r="G56" s="10">
+        <v>346861</v>
+      </c>
+      <c r="H56" s="10">
+        <v>16275</v>
+      </c>
+      <c r="I56" s="10">
+        <v>21514</v>
+      </c>
+      <c r="J56" s="10">
+        <v>182104</v>
+      </c>
+      <c r="K56" s="10">
+        <v>-916</v>
+      </c>
+      <c r="L56" s="10">
+        <v>6231</v>
+      </c>
+      <c r="M56" s="10">
+        <v>1476513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>2016</v>
       </c>
-      <c r="B56" s="10">
-        <v>254908</v>
-      </c>
-      <c r="C56" s="10">
-        <v>2722</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1161</v>
-      </c>
-      <c r="E56" s="10">
-        <v>542118</v>
-      </c>
-      <c r="F56" s="10">
-        <v>3259</v>
-      </c>
-      <c r="G56" s="10">
-        <v>314408</v>
-      </c>
-      <c r="H56" s="10">
-        <v>15378</v>
-      </c>
-      <c r="I56" s="10">
-        <v>28779</v>
-      </c>
-      <c r="J56" s="10">
-        <v>192183</v>
-      </c>
-      <c r="K56" s="10">
-        <v>-876</v>
-      </c>
-      <c r="L56" s="10">
-        <v>5918</v>
-      </c>
-      <c r="M56" s="10">
-        <v>1359958</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="10">
+        <v>276328</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3060</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1276</v>
+      </c>
+      <c r="E57" s="10">
+        <v>584558</v>
+      </c>
+      <c r="F57" s="10">
+        <v>3598</v>
+      </c>
+      <c r="G57" s="10">
+        <v>346505</v>
+      </c>
+      <c r="H57" s="10">
+        <v>16381</v>
+      </c>
+      <c r="I57" s="10">
+        <v>31237</v>
+      </c>
+      <c r="J57" s="10">
+        <v>211850</v>
+      </c>
+      <c r="K57" s="10">
+        <v>-961</v>
+      </c>
+      <c r="L57" s="10">
+        <v>6494</v>
+      </c>
+      <c r="M57" s="10">
+        <v>1480326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="10">
-        <v>361701</v>
-      </c>
-      <c r="C58" s="10">
-        <v>6247</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1621</v>
-      </c>
-      <c r="E58" s="10">
-        <v>606507</v>
-      </c>
-      <c r="F58" s="10">
-        <v>3623</v>
-      </c>
-      <c r="G58" s="10">
-        <v>382872</v>
-      </c>
-      <c r="H58" s="10">
-        <v>17916</v>
-      </c>
-      <c r="I58" s="10">
-        <v>22114</v>
-      </c>
-      <c r="J58" s="10">
-        <v>197601</v>
-      </c>
-      <c r="K58" s="10">
-        <v>-1010</v>
-      </c>
-      <c r="L58" s="10">
-        <v>6799</v>
-      </c>
-      <c r="M58" s="10">
-        <v>1605991</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="10">
+        <v>352819</v>
+      </c>
+      <c r="C59" s="10">
+        <v>6215</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1672</v>
+      </c>
+      <c r="E59" s="10">
+        <v>613815</v>
+      </c>
+      <c r="F59" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G59" s="10">
+        <v>381796</v>
+      </c>
+      <c r="H59" s="10">
+        <v>18062</v>
+      </c>
+      <c r="I59" s="10">
+        <v>22453</v>
+      </c>
+      <c r="J59" s="10">
+        <v>198206</v>
+      </c>
+      <c r="K59" s="10">
+        <v>-986</v>
+      </c>
+      <c r="L59" s="10">
+        <v>6812</v>
+      </c>
+      <c r="M59" s="10">
+        <v>1604426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>2016</v>
       </c>
-      <c r="B59" s="10">
-        <v>297143</v>
-      </c>
-      <c r="C59" s="10">
-        <v>3211</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1367</v>
-      </c>
-      <c r="E59" s="10">
-        <v>637337</v>
-      </c>
-      <c r="F59" s="10">
-        <v>3795</v>
-      </c>
-      <c r="G59" s="10">
-        <v>377558</v>
-      </c>
-      <c r="H59" s="10">
-        <v>18400</v>
-      </c>
-      <c r="I59" s="10">
-        <v>31826</v>
-      </c>
-      <c r="J59" s="10">
-        <v>232983</v>
-      </c>
-      <c r="K59" s="10">
-        <v>-1014</v>
-      </c>
-      <c r="L59" s="10">
-        <v>7116</v>
-      </c>
-      <c r="M59" s="10">
-        <v>1609720</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="B60" s="10">
+        <v>296392</v>
+      </c>
+      <c r="C60" s="10">
+        <v>3313</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1344</v>
+      </c>
+      <c r="E60" s="10">
+        <v>633234</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3900</v>
+      </c>
+      <c r="G60" s="10">
+        <v>380142</v>
+      </c>
+      <c r="H60" s="10">
+        <v>18102</v>
+      </c>
+      <c r="I60" s="10">
+        <v>32685</v>
+      </c>
+      <c r="J60" s="10">
+        <v>232604</v>
+      </c>
+      <c r="K60" s="10">
+        <v>-1032</v>
+      </c>
+      <c r="L60" s="10">
+        <v>7101</v>
+      </c>
+      <c r="M60" s="10">
+        <v>1607784</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:M3"/>
